--- a/docs/orchestratore/schema-cronologia-schede.xlsx
+++ b/docs/orchestratore/schema-cronologia-schede.xlsx
@@ -7,13 +7,13 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$A$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BA778B8A_8FF8_46ED_A994_39FA137963BF_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F0DFDCBE_5D61_46F5_BFE8_0BDC1CD733CE_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9EA3DDDD_A339_43AC_B0DC_755CA26A88E7_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9C217955_7827_4604_96A9_520DC6D31F7D_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F0DFDCBE-5D61-46F5-BFE8-0BDC1CD733CE}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA778B8A-8FF8-46ED-A994-39FA137963BF}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9C217955-7827-4604-96A9-520DC6D31F7D}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9EA3DDDD-A339-43AC-B0DC-755CA26A88E7}" name="Filtro 2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1792,7 +1792,7 @@
     <t>Articolo 116 decreto legislativo 36/2023 e allegato II.14</t>
   </si>
   <si>
-    <t>S4,S3,CO1,,SA1,RSU1,SO1,AC1,IR1,CO1,RI1_ ES1, CS1,SC1</t>
+    <t>S4,S3,CO1,SA1,RSU1,SO1,AC1,IR1,CO1,RI1, ES1,CS1,SC1</t>
   </si>
   <si>
     <t>COLL</t>
@@ -57808,10 +57808,10 @@
   </sheetData>
   <autoFilter ref="$A$1:$A$2033"/>
   <customSheetViews>
-    <customSheetView guid="{F0DFDCBE-5D61-46F5-BFE8-0BDC1CD733CE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9C217955-7827-4604-96A9-520DC6D31F7D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$2033"/>
     </customSheetView>
-    <customSheetView guid="{BA778B8A-8FF8-46ED-A994-39FA137963BF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9EA3DDDD-A339-43AC-B0DC-755CA26A88E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$1:$H$2033">
         <filterColumn colId="0">
           <filters>

--- a/docs/orchestratore/schema-cronologia-schede.xlsx
+++ b/docs/orchestratore/schema-cronologia-schede.xlsx
@@ -7,19 +7,19 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$A$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_851DCFCC_9249_4F2C_ACA8_E6CDBD5E754C_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B25FD10D_C37D_4D82_87AE_EF1341DFE0E9_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_09A25A5A_5D15_4B55_89AA_5DDED7C9E1AC_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0B8301B7_F849_40E0_93B2_09EC83065E97_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{851DCFCC-9249-4F2C-ACA8-E6CDBD5E754C}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B25FD10D-C37D-4D82-87AE-EF1341DFE0E9}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B8301B7-F849-40E0-93B2-09EC83065E97}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{09A25A5A-5D15-4B55-89AA-5DDED7C9E1AC}" name="Filtro 2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="556">
   <si>
     <t>Cod Area Funzionale</t>
   </si>
@@ -844,6 +844,9 @@
     <t>adesione AQ/convenzione con successivo confronto competitivo (concessioni)</t>
   </si>
   <si>
+    <t>SI, NO</t>
+  </si>
+  <si>
     <t>appalti - tutti i settori - tutti i regimi</t>
   </si>
   <si>
@@ -897,9 +900,6 @@
 Articolo 174 comma 3 decreto legislativo 36/2023 
 Articolo 182 comma 11 primo periodo e comma 12 decreto legislativo 36/2023
 </t>
-  </si>
-  <si>
-    <t>SI, NO</t>
   </si>
   <si>
     <t>P4_2</t>
@@ -1546,7 +1546,7 @@
     <t>A7</t>
   </si>
   <si>
-    <t>A7.1.1</t>
+    <t>A7_1_1</t>
   </si>
   <si>
     <t>aggiudicazione procedura negoziata senza bando pari o sopra soglia</t>
@@ -1562,16 +1562,10 @@
     <t>25,26,27,28</t>
   </si>
   <si>
-    <t>A7_1_1</t>
-  </si>
-  <si>
-    <t>A7.1.2</t>
+    <t>A7_1_2</t>
   </si>
   <si>
     <t>non Prevista</t>
-  </si>
-  <si>
-    <t>A7_1_2</t>
   </si>
   <si>
     <t>NAG</t>
@@ -6228,8 +6222,8 @@
       <c r="K51" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L51" s="35" t="s">
-        <v>62</v>
+      <c r="L51" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>62</v>
@@ -6277,7 +6271,7 @@
         <v>249</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D52" s="35" t="s">
         <v>95</v>
@@ -6286,16 +6280,16 @@
         <v>127</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J52" s="21" t="s">
         <v>63</v>
@@ -6303,8 +6297,8 @@
       <c r="K52" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L52" s="35" t="s">
-        <v>62</v>
+      <c r="L52" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>62</v>
@@ -6329,7 +6323,7 @@
       </c>
       <c r="T52" s="6"/>
       <c r="U52" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V52" s="23" t="s">
         <v>101</v>
@@ -6349,7 +6343,7 @@
         <v>93</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>232</v>
@@ -6361,16 +6355,16 @@
         <v>127</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J53" s="21" t="s">
         <v>63</v>
@@ -6404,7 +6398,7 @@
       </c>
       <c r="T53" s="6"/>
       <c r="U53" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V53" s="23" t="s">
         <v>101</v>
@@ -6424,10 +6418,10 @@
         <v>93</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D54" s="35" t="s">
         <v>95</v>
@@ -6436,23 +6430,23 @@
         <v>127</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J54" s="40"/>
       <c r="K54" s="41">
         <v>14.19</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>62</v>
@@ -6477,7 +6471,7 @@
       </c>
       <c r="T54" s="6"/>
       <c r="U54" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V54" s="23" t="s">
         <v>101</v>
@@ -6497,10 +6491,10 @@
         <v>93</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>95</v>
@@ -6527,7 +6521,7 @@
         <v>14.19</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>62</v>
@@ -6572,10 +6566,10 @@
         <v>93</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" s="35" t="s">
         <v>95</v>
@@ -6602,7 +6596,7 @@
         <v>14.19</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>62</v>
@@ -6647,10 +6641,10 @@
         <v>93</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>95</v>
@@ -6677,7 +6671,7 @@
         <v>14.19</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>62</v>
@@ -6722,10 +6716,10 @@
         <v>93</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D58" s="35" t="s">
         <v>95</v>
@@ -6752,7 +6746,7 @@
         <v>14.19</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>62</v>
@@ -6810,10 +6804,10 @@
         <v>93</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D59" s="35" t="s">
         <v>95</v>
@@ -6840,7 +6834,7 @@
         <v>14.19</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>62</v>
@@ -7166,8 +7160,8 @@
       <c r="K63" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L63" s="32" t="s">
-        <v>62</v>
+      <c r="L63" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>62</v>
@@ -7260,7 +7254,7 @@
         <v>62</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>63</v>
@@ -8220,7 +8214,7 @@
         <v>160</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>62</v>
@@ -8297,7 +8291,7 @@
         <v>160</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>62</v>
@@ -8374,7 +8368,7 @@
         <v>160</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>62</v>
@@ -10241,7 +10235,7 @@
         <v>59</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I104" s="21" t="s">
         <v>450</v>
@@ -10702,7 +10696,7 @@
       </c>
       <c r="T110" s="45"/>
       <c r="U110" s="52" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V110" s="18"/>
       <c r="W110" s="50" t="s">
@@ -10728,7 +10722,7 @@
         <v>301</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>59</v>
@@ -10743,7 +10737,7 @@
         <v>63</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>63</v>
@@ -10771,7 +10765,7 @@
       </c>
       <c r="T111" s="45"/>
       <c r="U111" s="52" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="V111" s="18"/>
       <c r="W111" s="50" t="s">
@@ -10787,23 +10781,23 @@
         <v>299</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F112" s="52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I112" s="16" t="s">
         <v>238</v>
@@ -10821,7 +10815,7 @@
         <v>62</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>63</v>
@@ -10836,15 +10830,15 @@
         <v>64</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="T112" s="45"/>
       <c r="U112" s="52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V112" s="46"/>
       <c r="W112" s="50" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="X112" s="19"/>
       <c r="Y112" s="19"/>
@@ -10860,23 +10854,23 @@
         <v>311</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>238</v>
@@ -10906,21 +10900,21 @@
         <v>63</v>
       </c>
       <c r="R113" s="49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="S113" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T113" s="45"/>
       <c r="U113" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V113" s="18"/>
       <c r="W113" s="50" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X113" s="50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Y113" s="50"/>
       <c r="Z113" s="20"/>
@@ -10931,23 +10925,23 @@
         <v>311</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I114" s="16" t="s">
         <v>238</v>
@@ -10977,19 +10971,19 @@
         <v>63</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S114" s="53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="T114" s="45"/>
       <c r="U114" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V114" s="18"/>
       <c r="W114" s="19"/>
       <c r="X114" s="50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y114" s="50"/>
       <c r="Z114" s="20">
@@ -11007,25 +11001,25 @@
         <v>312</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D115" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F115" s="54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G115" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J115" s="49" t="s">
         <v>62</v>
@@ -11052,14 +11046,14 @@
         <v>63</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="T115" s="45"/>
       <c r="U115" s="55" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V115" s="18"/>
       <c r="W115" s="19"/>
@@ -11086,19 +11080,19 @@
         <v>313</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>62</v>
@@ -11125,14 +11119,14 @@
         <v>63</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="S116" s="48">
         <v>114.119</v>
       </c>
       <c r="T116" s="45"/>
       <c r="U116" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="V116" s="18"/>
       <c r="W116" s="19"/>
@@ -11153,25 +11147,25 @@
         <v>312</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F117" s="54" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>63</v>
@@ -11198,14 +11192,14 @@
         <v>63</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="S117" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T117" s="45"/>
       <c r="U117" s="55" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="V117" s="18"/>
       <c r="W117" s="19"/>
@@ -11232,19 +11226,19 @@
         <v>313</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F118" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>63</v>
@@ -11271,14 +11265,14 @@
         <v>63</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S118" s="48">
         <v>214.219</v>
       </c>
       <c r="T118" s="45"/>
       <c r="U118" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V118" s="18"/>
       <c r="W118" s="19"/>
@@ -11296,23 +11290,23 @@
         <v>311</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I119" s="21" t="s">
         <v>238</v>
@@ -11342,14 +11336,14 @@
         <v>63</v>
       </c>
       <c r="R119" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S119" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T119" s="45"/>
       <c r="U119" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
@@ -11367,26 +11361,26 @@
         <v>311</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C120" s="49"/>
       <c r="D120" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E120" s="49" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F120" s="54" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G120" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H120" s="49" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J120" s="49" t="s">
         <v>63</v>
@@ -11413,14 +11407,14 @@
         <v>63</v>
       </c>
       <c r="R120" s="49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S120" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T120" s="59"/>
       <c r="U120" s="54" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="V120" s="60"/>
       <c r="W120" s="61"/>
@@ -11451,26 +11445,26 @@
         <v>311</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E121" s="49" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F121" s="54" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G121" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H121" s="49" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J121" s="49" t="s">
         <v>63</v>
@@ -11497,20 +11491,20 @@
         <v>63</v>
       </c>
       <c r="R121" s="49" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S121" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T121" s="59"/>
       <c r="U121" s="54" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="V121" s="60"/>
       <c r="W121" s="61"/>
       <c r="X121" s="61"/>
       <c r="Y121" s="54" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Z121" s="63">
         <v>45224.0</v>
@@ -11537,26 +11531,26 @@
         <v>311</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C122" s="49"/>
       <c r="D122" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E122" s="49" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F122" s="54" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G122" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H122" s="49" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J122" s="49" t="s">
         <v>63</v>
@@ -11583,20 +11577,20 @@
         <v>63</v>
       </c>
       <c r="R122" s="49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S122" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T122" s="59"/>
       <c r="U122" s="54" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="V122" s="60"/>
       <c r="W122" s="61"/>
       <c r="X122" s="61"/>
       <c r="Y122" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Z122" s="63"/>
       <c r="AA122" s="63"/>
@@ -11619,26 +11613,26 @@
         <v>311</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C123" s="49"/>
       <c r="D123" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E123" s="49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F123" s="54" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G123" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H123" s="49" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J123" s="49" t="s">
         <v>63</v>
@@ -11665,14 +11659,14 @@
         <v>63</v>
       </c>
       <c r="R123" s="49" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S123" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T123" s="59"/>
       <c r="U123" s="54" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V123" s="60"/>
       <c r="W123" s="61"/>
@@ -11703,26 +11697,26 @@
         <v>311</v>
       </c>
       <c r="B124" s="49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C124" s="49"/>
       <c r="D124" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E124" s="67" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F124" s="54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G124" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H124" s="49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J124" s="49" t="s">
         <v>63</v>
@@ -11749,20 +11743,20 @@
         <v>63</v>
       </c>
       <c r="R124" s="49" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="S124" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T124" s="59"/>
       <c r="U124" s="54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V124" s="60"/>
       <c r="W124" s="61"/>
       <c r="X124" s="68"/>
       <c r="Y124" s="54" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Z124" s="63"/>
       <c r="AA124" s="63"/>
@@ -11785,26 +11779,26 @@
         <v>311</v>
       </c>
       <c r="B125" s="49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C125" s="49"/>
       <c r="D125" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E125" s="49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F125" s="54" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G125" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H125" s="49" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J125" s="49" t="s">
         <v>63</v>
@@ -11831,20 +11825,20 @@
         <v>63</v>
       </c>
       <c r="R125" s="49" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S125" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T125" s="59"/>
       <c r="U125" s="54" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V125" s="60"/>
       <c r="W125" s="61"/>
       <c r="X125" s="69"/>
       <c r="Y125" s="54" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Z125" s="63"/>
       <c r="AA125" s="63"/>
@@ -11867,26 +11861,26 @@
         <v>311</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H126" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I126" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="I126" s="21" t="s">
-        <v>540</v>
       </c>
       <c r="J126" s="6" t="s">
         <v>63</v>
@@ -11913,14 +11907,14 @@
         <v>63</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S126" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T126" s="45"/>
       <c r="U126" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V126" s="70"/>
       <c r="W126" s="71"/>
@@ -11938,23 +11932,23 @@
         <v>311</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I127" s="21" t="s">
         <v>238</v>
@@ -11984,14 +11978,14 @@
         <v>63</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S127" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T127" s="45"/>
       <c r="U127" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
@@ -12009,23 +12003,23 @@
         <v>311</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I128" s="21" t="s">
         <v>238</v>
@@ -12055,19 +12049,19 @@
         <v>63</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T128" s="45"/>
       <c r="U128" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="V128" s="74"/>
       <c r="W128" s="75"/>
       <c r="X128" s="76" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="20">
@@ -12082,14 +12076,14 @@
         <v>311</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C129" s="49"/>
       <c r="D129" s="77" t="s">
         <v>313</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F129" s="52" t="s">
         <v>362</v>
@@ -12098,7 +12092,7 @@
         <v>59</v>
       </c>
       <c r="H129" s="49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I129" s="37" t="s">
         <v>238</v>
@@ -12140,7 +12134,7 @@
       <c r="V129" s="60"/>
       <c r="W129" s="61"/>
       <c r="X129" s="76" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="63"/>
@@ -12164,26 +12158,26 @@
         <v>311</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H130" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="I130" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="I130" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="J130" s="6" t="s">
         <v>63</v>
@@ -12210,19 +12204,19 @@
         <v>63</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S130" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T130" s="45"/>
       <c r="U130" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="V130" s="74"/>
       <c r="W130" s="75"/>
       <c r="X130" s="68" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y130" s="50"/>
       <c r="Z130" s="20">
@@ -57912,10 +57906,10 @@
   </sheetData>
   <autoFilter ref="$A$1:$A$2033"/>
   <customSheetViews>
-    <customSheetView guid="{851DCFCC-9249-4F2C-ACA8-E6CDBD5E754C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0B8301B7-F849-40E0-93B2-09EC83065E97}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$2033"/>
     </customSheetView>
-    <customSheetView guid="{B25FD10D-C37D-4D82-87AE-EF1341DFE0E9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{09A25A5A-5D15-4B55-89AA-5DDED7C9E1AC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$1:$H$2033">
         <filterColumn colId="0">
           <filters>

--- a/docs/orchestratore/schema-cronologia-schede.xlsx
+++ b/docs/orchestratore/schema-cronologia-schede.xlsx
@@ -7,13 +7,13 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$A$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_09A25A5A_5D15_4B55_89AA_5DDED7C9E1AC_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0B8301B7_F849_40E0_93B2_09EC83065E97_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BA21F716_8467_4DEC_BF65_60063EBF9A35_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3E817B5F_C6B8_4258_9541_1122D41127EC_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B8301B7-F849-40E0-93B2-09EC83065E97}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{09A25A5A-5D15-4B55-89AA-5DDED7C9E1AC}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E817B5F-C6B8-4258-9541-1122D41127EC}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA21F716-8467-4DEC-BF65-60063EBF9A35}" name="Filtro 2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2507,14 +2507,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.5"/>
-    <col customWidth="1" min="2" max="3" width="17.38"/>
-    <col customWidth="1" min="4" max="4" width="12.25"/>
+    <col customWidth="1" min="2" max="2" width="17.38"/>
+    <col customWidth="1" min="3" max="3" width="20.25"/>
+    <col customWidth="1" min="4" max="4" width="15.75"/>
     <col customWidth="1" min="5" max="5" width="14.38"/>
     <col customWidth="1" min="6" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="9.88"/>
     <col customWidth="1" min="8" max="8" width="19.25"/>
     <col customWidth="1" min="9" max="9" width="26.75"/>
-    <col customWidth="1" min="10" max="10" width="12.0"/>
+    <col customWidth="1" min="10" max="10" width="17.88"/>
     <col customWidth="1" min="11" max="11" width="11.0"/>
     <col customWidth="1" min="12" max="12" width="14.38"/>
     <col customWidth="1" min="13" max="14" width="13.88"/>
@@ -57906,10 +57907,10 @@
   </sheetData>
   <autoFilter ref="$A$1:$A$2033"/>
   <customSheetViews>
-    <customSheetView guid="{0B8301B7-F849-40E0-93B2-09EC83065E97}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3E817B5F-C6B8-4258-9541-1122D41127EC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$2033"/>
     </customSheetView>
-    <customSheetView guid="{09A25A5A-5D15-4B55-89AA-5DDED7C9E1AC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA21F716-8467-4DEC-BF65-60063EBF9A35}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$1:$H$2033">
         <filterColumn colId="0">
           <filters>

--- a/docs/orchestratore/schema-cronologia-schede.xlsx
+++ b/docs/orchestratore/schema-cronologia-schede.xlsx
@@ -6,20 +6,22 @@
     <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$A$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BA21F716_8467_4DEC_BF65_60063EBF9A35_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3E817B5F_C6B8_4258_9541_1122D41127EC_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$AA$130</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2EE30680_1E2E_4121_8F3B_9DF6609FB2CD_.wvu.FilterData">Foglio1!$H$1:$H$2033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6E949C9A_7050_4837_A8FE_2FF06E92E625_.wvu.FilterData">Foglio1!$A$1:$AN$130</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_33977C84_EC2A_444D_8859_E3971BA0B066_.wvu.FilterData">Foglio1!$A$1:$A$2033</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E817B5F-C6B8-4258-9541-1122D41127EC}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA21F716-8467-4DEC-BF65-60063EBF9A35}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{33977C84-EC2A-444D-8859-E3971BA0B066}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2EE30680-1E2E-4121-8F3B-9DF6609FB2CD}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6E949C9A-7050-4837-A8FE-2FF06E92E625}" name="Filtro 3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="555">
   <si>
     <t>Cod Area Funzionale</t>
   </si>
@@ -1481,9 +1483,6 @@
     <t>A3_3</t>
   </si>
   <si>
-    <t>oncessione  - pari/sopra soglia - tutti i regimi</t>
-  </si>
-  <si>
     <t>A3_4</t>
   </si>
   <si>
@@ -2613,7 +2612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="219.75" customHeight="1">
+    <row r="2" ht="219.75" hidden="1" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
@@ -2696,7 +2695,7 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
@@ -2761,7 +2760,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="15" t="s">
         <v>53</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2890,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -2956,7 +2955,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -3086,7 +3085,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="15" t="s">
         <v>93</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="15" t="s">
         <v>93</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="15" t="s">
         <v>93</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="24" t="s">
         <v>53</v>
       </c>
@@ -3730,7 +3729,7 @@
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="15" t="s">
         <v>93</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="15" t="s">
         <v>93</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="15" t="s">
         <v>93</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="15" t="s">
         <v>93</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="15" t="s">
         <v>93</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="15" t="s">
         <v>93</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="15" t="s">
         <v>93</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="15" t="s">
         <v>53</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="15" t="s">
         <v>53</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="15" t="s">
         <v>53</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="15" t="s">
         <v>53</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="4" t="s">
         <v>93</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
@@ -5064,7 +5063,7 @@
       <c r="AM35" s="31"/>
       <c r="AN35" s="31"/>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="37" ht="93.75" customHeight="1">
+    <row r="37" ht="93.75" hidden="1" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="38" ht="78.75" customHeight="1">
+    <row r="38" ht="78.75" hidden="1" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>93</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="4" t="s">
         <v>93</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="41" ht="42.75" customHeight="1">
+    <row r="41" ht="42.75" hidden="1" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>93</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="42" ht="80.25" customHeight="1">
+    <row r="42" ht="80.25" hidden="1" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="4" t="s">
         <v>93</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="53" ht="40.5" customHeight="1">
+    <row r="53" ht="40.5" hidden="1" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>93</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="4" t="s">
         <v>93</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
@@ -6800,7 +6799,7 @@
       <c r="AM58" s="42"/>
       <c r="AN58" s="42"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="60" ht="150.75" customHeight="1">
+    <row r="60" ht="150.75" hidden="1" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>93</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="AM60" s="31"/>
       <c r="AN60" s="31"/>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="4" t="s">
         <v>93</v>
       </c>
@@ -7043,7 +7042,7 @@
       <c r="AM61" s="31"/>
       <c r="AN61" s="31"/>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="4" t="s">
         <v>93</v>
       </c>
@@ -7127,7 +7126,7 @@
       <c r="AM62" s="31"/>
       <c r="AN62" s="31"/>
     </row>
-    <row r="63" ht="177.0" customHeight="1">
+    <row r="63" ht="177.0" hidden="1" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>93</v>
       </c>
@@ -7211,7 +7210,7 @@
       <c r="AM63" s="31"/>
       <c r="AN63" s="31"/>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="15" t="s">
         <v>53</v>
       </c>
@@ -7280,7 +7279,7 @@
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="4" t="s">
         <v>299</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="4" t="s">
         <v>299</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
         <v>299</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="4" t="s">
         <v>311</v>
       </c>
@@ -7564,7 +7563,7 @@
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="6" t="s">
         <v>317</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="15" t="s">
         <v>317</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="15" t="s">
         <v>317</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="15" t="s">
         <v>317</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="15" t="s">
         <v>317</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="15" t="s">
         <v>317</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="15" t="s">
         <v>317</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="15" t="s">
         <v>317</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="15" t="s">
         <v>317</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="15" t="s">
         <v>317</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="15" t="s">
         <v>317</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="4" t="s">
         <v>299</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="4" t="s">
         <v>299</v>
       </c>
@@ -8561,7 +8560,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="4" t="s">
         <v>299</v>
       </c>
@@ -8636,7 +8635,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="4" t="s">
         <v>299</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="4" t="s">
         <v>299</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="4" t="s">
         <v>299</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="4" t="s">
         <v>299</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="4" t="s">
         <v>299</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="4" t="s">
         <v>299</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
         <v>299</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="4" t="s">
         <v>299</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="4" t="s">
         <v>299</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="4" t="s">
         <v>299</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="4" t="s">
         <v>299</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="4" t="s">
         <v>299</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="4" t="s">
         <v>299</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="4" t="s">
         <v>299</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="4" t="s">
         <v>299</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="4" t="s">
         <v>299</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="4" t="s">
         <v>299</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="4" t="s">
         <v>299</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="101" ht="114.75" customHeight="1">
+    <row r="101" ht="114.75" hidden="1" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>299</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>430</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>436</v>
+        <v>240</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>301</v>
@@ -10003,16 +10002,16 @@
         <v>301</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H101" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I101" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>439</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>63</v>
@@ -10046,7 +10045,7 @@
       </c>
       <c r="T101" s="45"/>
       <c r="U101" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V101" s="18"/>
       <c r="W101" s="50" t="s">
@@ -10061,7 +10060,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="4" t="s">
         <v>299</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>301</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>59</v>
@@ -10087,7 +10086,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>63</v>
@@ -10121,7 +10120,7 @@
       </c>
       <c r="T102" s="45"/>
       <c r="U102" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V102" s="18"/>
       <c r="W102" s="50" t="s">
@@ -10136,7 +10135,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="4" t="s">
         <v>317</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>430</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>319</v>
@@ -10153,16 +10152,16 @@
         <v>320</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H103" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="I103" s="21" t="s">
         <v>444</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>445</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>63</v>
@@ -10189,14 +10188,14 @@
         <v>62</v>
       </c>
       <c r="R103" s="49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S103" s="6">
         <v>36.0</v>
       </c>
       <c r="T103" s="45"/>
       <c r="U103" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V103" s="23" t="s">
         <v>101</v>
@@ -10213,15 +10212,15 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>301</v>
@@ -10230,7 +10229,7 @@
         <v>301</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>59</v>
@@ -10239,7 +10238,7 @@
         <v>264</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>63</v>
@@ -10273,7 +10272,7 @@
       </c>
       <c r="T104" s="45"/>
       <c r="U104" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V104" s="18"/>
       <c r="W104" s="50" t="s">
@@ -10284,15 +10283,15 @@
       <c r="Z104" s="20"/>
       <c r="AA104" s="20"/>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>301</v>
@@ -10301,7 +10300,7 @@
         <v>301</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>59</v>
@@ -10310,7 +10309,7 @@
         <v>267</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>63</v>
@@ -10344,7 +10343,7 @@
       </c>
       <c r="T105" s="45"/>
       <c r="U105" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V105" s="18"/>
       <c r="W105" s="50" t="s">
@@ -10355,15 +10354,15 @@
       <c r="Z105" s="20"/>
       <c r="AA105" s="20"/>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>301</v>
@@ -10372,7 +10371,7 @@
         <v>301</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>59</v>
@@ -10381,7 +10380,7 @@
         <v>270</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>63</v>
@@ -10415,7 +10414,7 @@
       </c>
       <c r="T106" s="45"/>
       <c r="U106" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V106" s="18"/>
       <c r="W106" s="50" t="s">
@@ -10426,15 +10425,15 @@
       <c r="Z106" s="20"/>
       <c r="AA106" s="20"/>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>301</v>
@@ -10443,7 +10442,7 @@
         <v>301</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>59</v>
@@ -10452,7 +10451,7 @@
         <v>272</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>63</v>
@@ -10486,7 +10485,7 @@
       </c>
       <c r="T107" s="45"/>
       <c r="U107" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V107" s="18"/>
       <c r="W107" s="50" t="s">
@@ -10497,15 +10496,15 @@
       <c r="Z107" s="20"/>
       <c r="AA107" s="20"/>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C108" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>301</v>
@@ -10514,7 +10513,7 @@
         <v>301</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>59</v>
@@ -10523,7 +10522,7 @@
         <v>274</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>63</v>
@@ -10557,7 +10556,7 @@
       </c>
       <c r="T108" s="45"/>
       <c r="U108" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V108" s="18"/>
       <c r="W108" s="50" t="s">
@@ -10568,15 +10567,15 @@
       <c r="Z108" s="20"/>
       <c r="AA108" s="20"/>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>301</v>
@@ -10585,7 +10584,7 @@
         <v>301</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>59</v>
@@ -10594,7 +10593,7 @@
         <v>276</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>63</v>
@@ -10628,7 +10627,7 @@
       </c>
       <c r="T109" s="45"/>
       <c r="U109" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V109" s="18"/>
       <c r="W109" s="50" t="s">
@@ -10639,12 +10638,12 @@
       <c r="Z109" s="20"/>
       <c r="AA109" s="20"/>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="6" t="s">
@@ -10654,22 +10653,22 @@
         <v>301</v>
       </c>
       <c r="F110" s="52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H110" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I110" s="21" t="s">
         <v>458</v>
-      </c>
-      <c r="I110" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>62</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L110" s="6" t="s">
         <v>63</v>
@@ -10697,7 +10696,7 @@
       </c>
       <c r="T110" s="45"/>
       <c r="U110" s="52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V110" s="18"/>
       <c r="W110" s="50" t="s">
@@ -10708,12 +10707,12 @@
       <c r="Z110" s="20"/>
       <c r="AA110" s="20"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C111" s="47"/>
       <c r="D111" s="6" t="s">
@@ -10723,22 +10722,22 @@
         <v>301</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H111" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I111" s="21" t="s">
         <v>458</v>
-      </c>
-      <c r="I111" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="J111" s="6" t="s">
         <v>63</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>63</v>
@@ -10766,7 +10765,7 @@
       </c>
       <c r="T111" s="45"/>
       <c r="U111" s="52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V111" s="18"/>
       <c r="W111" s="50" t="s">
@@ -10777,28 +10776,28 @@
       <c r="Z111" s="20"/>
       <c r="AA111" s="20"/>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F112" s="52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I112" s="16" t="s">
         <v>238</v>
@@ -10831,15 +10830,15 @@
         <v>64</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T112" s="45"/>
       <c r="U112" s="52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V112" s="46"/>
       <c r="W112" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X112" s="19"/>
       <c r="Y112" s="19"/>
@@ -10850,28 +10849,28 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E113" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>238</v>
@@ -10901,48 +10900,48 @@
         <v>63</v>
       </c>
       <c r="R113" s="49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S113" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T113" s="45"/>
       <c r="U113" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V113" s="18"/>
       <c r="W113" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="X113" s="50" t="s">
         <v>473</v>
-      </c>
-      <c r="X113" s="50" t="s">
-        <v>474</v>
       </c>
       <c r="Y113" s="50"/>
       <c r="Z113" s="20"/>
       <c r="AA113" s="20"/>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E114" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I114" s="16" t="s">
         <v>238</v>
@@ -10972,19 +10971,19 @@
         <v>63</v>
       </c>
       <c r="R114" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="S114" s="53" t="s">
         <v>479</v>
-      </c>
-      <c r="S114" s="53" t="s">
-        <v>480</v>
       </c>
       <c r="T114" s="45"/>
       <c r="U114" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V114" s="18"/>
       <c r="W114" s="19"/>
       <c r="X114" s="50" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y114" s="50"/>
       <c r="Z114" s="20">
@@ -10994,7 +10993,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="6" t="s">
         <v>311</v>
       </c>
@@ -11002,25 +11001,25 @@
         <v>312</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D115" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E115" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="F115" s="54" t="s">
         <v>483</v>
-      </c>
-      <c r="F115" s="54" t="s">
-        <v>484</v>
       </c>
       <c r="G115" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H115" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="I115" s="37" t="s">
         <v>485</v>
-      </c>
-      <c r="I115" s="37" t="s">
-        <v>486</v>
       </c>
       <c r="J115" s="49" t="s">
         <v>62</v>
@@ -11047,14 +11046,14 @@
         <v>63</v>
       </c>
       <c r="R115" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="S115" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="S115" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="T115" s="45"/>
       <c r="U115" s="55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V115" s="18"/>
       <c r="W115" s="19"/>
@@ -11067,7 +11066,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="6" t="s">
         <v>311</v>
       </c>
@@ -11081,19 +11080,19 @@
         <v>313</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I116" s="21" t="s">
         <v>490</v>
-      </c>
-      <c r="I116" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>62</v>
@@ -11120,14 +11119,14 @@
         <v>63</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S116" s="48">
         <v>114.119</v>
       </c>
       <c r="T116" s="45"/>
       <c r="U116" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V116" s="18"/>
       <c r="W116" s="19"/>
@@ -11140,7 +11139,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="6" t="s">
         <v>311</v>
       </c>
@@ -11148,25 +11147,25 @@
         <v>312</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F117" s="54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H117" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I117" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="I117" s="21" t="s">
-        <v>496</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>63</v>
@@ -11193,14 +11192,14 @@
         <v>63</v>
       </c>
       <c r="R117" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="S117" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="S117" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="T117" s="45"/>
       <c r="U117" s="55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V117" s="18"/>
       <c r="W117" s="19"/>
@@ -11213,7 +11212,7 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="6" t="s">
         <v>311</v>
       </c>
@@ -11227,19 +11226,19 @@
         <v>313</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F118" s="52" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H118" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I118" s="21" t="s">
         <v>500</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>501</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>63</v>
@@ -11266,14 +11265,14 @@
         <v>63</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S118" s="48">
         <v>214.219</v>
       </c>
       <c r="T118" s="45"/>
       <c r="U118" s="52" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V118" s="18"/>
       <c r="W118" s="19"/>
@@ -11286,28 +11285,28 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E119" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I119" s="21" t="s">
         <v>238</v>
@@ -11337,14 +11336,14 @@
         <v>63</v>
       </c>
       <c r="R119" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S119" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T119" s="45"/>
       <c r="U119" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
@@ -11357,31 +11356,31 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C120" s="49"/>
       <c r="D120" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E120" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="F120" s="54" t="s">
         <v>509</v>
-      </c>
-      <c r="F120" s="54" t="s">
-        <v>510</v>
       </c>
       <c r="G120" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H120" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="I120" s="37" t="s">
         <v>511</v>
-      </c>
-      <c r="I120" s="37" t="s">
-        <v>512</v>
       </c>
       <c r="J120" s="49" t="s">
         <v>63</v>
@@ -11408,14 +11407,14 @@
         <v>63</v>
       </c>
       <c r="R120" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S120" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T120" s="59"/>
       <c r="U120" s="54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V120" s="60"/>
       <c r="W120" s="61"/>
@@ -11441,31 +11440,31 @@
       <c r="AM120" s="64"/>
       <c r="AN120" s="64"/>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E121" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F121" s="54" t="s">
         <v>514</v>
-      </c>
-      <c r="F121" s="54" t="s">
-        <v>515</v>
       </c>
       <c r="G121" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H121" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="I121" s="37" t="s">
         <v>516</v>
-      </c>
-      <c r="I121" s="37" t="s">
-        <v>517</v>
       </c>
       <c r="J121" s="49" t="s">
         <v>63</v>
@@ -11492,20 +11491,20 @@
         <v>63</v>
       </c>
       <c r="R121" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S121" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T121" s="59"/>
       <c r="U121" s="54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V121" s="60"/>
       <c r="W121" s="61"/>
       <c r="X121" s="61"/>
       <c r="Y121" s="54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z121" s="63">
         <v>45224.0</v>
@@ -11527,31 +11526,31 @@
       <c r="AM121" s="64"/>
       <c r="AN121" s="64"/>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C122" s="49"/>
       <c r="D122" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E122" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="F122" s="54" t="s">
         <v>519</v>
-      </c>
-      <c r="F122" s="54" t="s">
-        <v>520</v>
       </c>
       <c r="G122" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H122" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J122" s="49" t="s">
         <v>63</v>
@@ -11578,20 +11577,20 @@
         <v>63</v>
       </c>
       <c r="R122" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S122" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T122" s="59"/>
       <c r="U122" s="54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V122" s="60"/>
       <c r="W122" s="61"/>
       <c r="X122" s="61"/>
       <c r="Y122" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Z122" s="63"/>
       <c r="AA122" s="63"/>
@@ -11609,31 +11608,31 @@
       <c r="AM122" s="64"/>
       <c r="AN122" s="64"/>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C123" s="49"/>
       <c r="D123" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E123" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="F123" s="54" t="s">
         <v>523</v>
-      </c>
-      <c r="F123" s="54" t="s">
-        <v>524</v>
       </c>
       <c r="G123" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H123" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="I123" s="37" t="s">
         <v>525</v>
-      </c>
-      <c r="I123" s="37" t="s">
-        <v>526</v>
       </c>
       <c r="J123" s="49" t="s">
         <v>63</v>
@@ -11660,14 +11659,14 @@
         <v>63</v>
       </c>
       <c r="R123" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S123" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T123" s="59"/>
       <c r="U123" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V123" s="60"/>
       <c r="W123" s="61"/>
@@ -11693,31 +11692,31 @@
       <c r="AM123" s="64"/>
       <c r="AN123" s="64"/>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B124" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C124" s="49"/>
       <c r="D124" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E124" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="F124" s="54" t="s">
         <v>528</v>
-      </c>
-      <c r="F124" s="54" t="s">
-        <v>529</v>
       </c>
       <c r="G124" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H124" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J124" s="49" t="s">
         <v>63</v>
@@ -11744,20 +11743,20 @@
         <v>63</v>
       </c>
       <c r="R124" s="49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S124" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T124" s="59"/>
       <c r="U124" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V124" s="60"/>
       <c r="W124" s="61"/>
       <c r="X124" s="68"/>
       <c r="Y124" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z124" s="63"/>
       <c r="AA124" s="63"/>
@@ -11775,31 +11774,31 @@
       <c r="AM124" s="64"/>
       <c r="AN124" s="64"/>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B125" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C125" s="49"/>
       <c r="D125" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E125" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="F125" s="54" t="s">
         <v>531</v>
-      </c>
-      <c r="F125" s="54" t="s">
-        <v>532</v>
       </c>
       <c r="G125" s="49" t="s">
         <v>59</v>
       </c>
       <c r="H125" s="49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J125" s="49" t="s">
         <v>63</v>
@@ -11826,20 +11825,20 @@
         <v>63</v>
       </c>
       <c r="R125" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S125" s="49" t="s">
         <v>304</v>
       </c>
       <c r="T125" s="59"/>
       <c r="U125" s="54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V125" s="60"/>
       <c r="W125" s="61"/>
       <c r="X125" s="69"/>
       <c r="Y125" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z125" s="63"/>
       <c r="AA125" s="63"/>
@@ -11857,31 +11856,31 @@
       <c r="AM125" s="64"/>
       <c r="AN125" s="64"/>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E126" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I126" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J126" s="6" t="s">
         <v>63</v>
@@ -11908,14 +11907,14 @@
         <v>63</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S126" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T126" s="45"/>
       <c r="U126" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V126" s="70"/>
       <c r="W126" s="71"/>
@@ -11928,28 +11927,28 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E127" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I127" s="21" t="s">
         <v>238</v>
@@ -11979,14 +11978,14 @@
         <v>63</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S127" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T127" s="45"/>
       <c r="U127" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
@@ -11999,28 +11998,28 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I128" s="21" t="s">
         <v>238</v>
@@ -12050,19 +12049,19 @@
         <v>63</v>
       </c>
       <c r="R128" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="S128" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="S128" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="T128" s="45"/>
       <c r="U128" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V128" s="74"/>
       <c r="W128" s="75"/>
       <c r="X128" s="76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="20">
@@ -12072,19 +12071,19 @@
         <v>73050.0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C129" s="49"/>
       <c r="D129" s="77" t="s">
         <v>313</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F129" s="52" t="s">
         <v>362</v>
@@ -12093,7 +12092,7 @@
         <v>59</v>
       </c>
       <c r="H129" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I129" s="37" t="s">
         <v>238</v>
@@ -12135,7 +12134,7 @@
       <c r="V129" s="60"/>
       <c r="W129" s="61"/>
       <c r="X129" s="76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="63"/>
@@ -12154,31 +12153,31 @@
       <c r="AM129" s="64"/>
       <c r="AN129" s="64"/>
     </row>
-    <row r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E130" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J130" s="6" t="s">
         <v>63</v>
@@ -12205,19 +12204,19 @@
         <v>63</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S130" s="6" t="s">
         <v>304</v>
       </c>
       <c r="T130" s="45"/>
       <c r="U130" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V130" s="74"/>
       <c r="W130" s="75"/>
       <c r="X130" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Y130" s="50"/>
       <c r="Z130" s="20">
@@ -57905,12 +57904,35 @@
       <c r="V2033" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$A$2033"/>
+  <autoFilter ref="$A$1:$AA$130">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="214.713"/>
+        <filter val="114.119"/>
+        <filter val="61"/>
+        <filter val="218.713"/>
+        <filter val="62"/>
+        <filter val="113.121"/>
+        <filter val="214.219"/>
+        <filter val="219.713"/>
+        <filter val="110.116"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{3E817B5F-C6B8-4258-9541-1122D41127EC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6E949C9A-7050-4837-A8FE-2FF06E92E625}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$AN$130">
+        <filterColumn colId="1">
+          <filters>
+            <filter val="CO"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{33977C84-EC2A-444D-8859-E3971BA0B066}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$2033"/>
     </customSheetView>
-    <customSheetView guid="{BA21F716-8467-4DEC-BF65-60063EBF9A35}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2EE30680-1E2E-4121-8F3B-9DF6609FB2CD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$1:$H$2033">
         <filterColumn colId="0">
           <filters>
